--- a/数值设定/AOM 生产方式 数值设定.xlsx
+++ b/数值设定/AOM 生产方式 数值设定.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
@@ -1146,11 +1146,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="29">
@@ -1226,22 +1226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1249,8 +1233,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1263,24 +1256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,6 +1279,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -1308,35 +1301,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1357,14 +1325,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1391,13 +1391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1409,49 +1409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,19 +1421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,7 +1451,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,13 +1517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,31 +1535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,13 +1559,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,11 +1602,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1622,6 +1620,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1643,57 +1689,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1705,10 +1705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1717,133 +1717,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2314,11 +2314,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="18.75"/>
@@ -11113,7 +11113,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -14287,7 +14287,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16382,7 +16382,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21394,7 +21394,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22101,7 +22101,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -25120,7 +25120,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AR55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
